--- a/Tables/TableS5-Pairwise_within_LMM_Score.xlsx
+++ b/Tables/TableS5-Pairwise_within_LMM_Score.xlsx
@@ -624,7 +624,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Abb. Workshop - Talk</t>
+            <t>Abb. Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -690,7 +690,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Workshop - Talk</t>
+            <t>Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -822,7 +822,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Abb. Workshop - Talk</t>
+            <t>Abb. Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -888,7 +888,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Workshop - Talk</t>
+            <t>Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -1065,7 +1065,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Abb. Workshop - Talk</t>
+            <t>Abb. Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -1131,7 +1131,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Workshop - Talk</t>
+            <t>Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -1263,7 +1263,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Abb. Workshop - Talk</t>
+            <t>Abb. Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -1329,7 +1329,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Workshop - Talk</t>
+            <t>Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -1506,7 +1506,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Abb. Workshop - Talk</t>
+            <t>Abb. Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -1572,7 +1572,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Workshop - Talk</t>
+            <t>Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -1704,7 +1704,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Abb. Workshop - Talk</t>
+            <t>Abb. Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -1770,7 +1770,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Workshop - Talk</t>
+            <t>Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -1947,7 +1947,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Abb. Workshop - Talk</t>
+            <t>Abb. Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -2013,7 +2013,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Workshop - Talk</t>
+            <t>Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -2145,7 +2145,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Abb. Workshop - Talk</t>
+            <t>Abb. Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
@@ -2211,7 +2211,7 @@
         <is>
           <r>
             <rPr/>
-            <t>Workshop - Talk</t>
+            <t>Workshop - Direct instruction</t>
           </r>
         </is>
       </c>
